--- a/FileDemo/Data.xlsx
+++ b/FileDemo/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\CT239\FileDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3977BFF-534E-46AB-B17F-301F706A9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7557E11A-8936-4049-8234-67E374474AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>III. Các khoản phải thu</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>TÀI SẢN</t>
+  </si>
+  <si>
+    <t>ThisYear</t>
+  </si>
+  <si>
+    <t>LastYear</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,11 +458,11 @@
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2019</v>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
